--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_15_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46767.86256822129</v>
+        <v>39123.8007141909</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219458</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="C8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796774</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="U8" t="n">
-        <v>104.8891084057995</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>30.7078552878317</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>48.24380842194443</v>
       </c>
       <c r="E9" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>46.46529703769176</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>84.32851138425291</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1271,10 +1271,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="W9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>104.8891084057994</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="T10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>119.083910542461</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>104.8891084057995</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>160.7988598828761</v>
       </c>
       <c r="G11" t="n">
-        <v>272.2555164535133</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -1429,10 +1429,10 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>257.5759909986576</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>284.0859530482738</v>
+        <v>171.9420164637137</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>336.9286363737069</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
         <v>267.0243359415286</v>
@@ -1666,16 +1666,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.0832367239146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>133.3079226108694</v>
       </c>
       <c r="C16" t="n">
-        <v>118.0185464191275</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
         <v>239.8247518556274</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>77.08347190864652</v>
       </c>
       <c r="Y17" t="n">
-        <v>374.9977007303382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,13 +2004,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>19.70610221343552</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2019,7 +2019,7 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>35.13097398123061</v>
       </c>
       <c r="I19" t="n">
         <v>62.46433369811443</v>
@@ -2058,7 +2058,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2067,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>348.4214736634539</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>361.4649050157285</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>126.6566641907164</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>81.04499162466323</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
         <v>225.1454739790328</v>
@@ -2323,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>284.7863824398394</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>400.0101845235226</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U25" t="n">
-        <v>170.3034090720313</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2560,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>85.72118841704828</v>
+        <v>241.597011848365</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2611,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>162.6883753242429</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2775,7 +2775,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>186.3945973787185</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>316.2524231178973</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
         <v>256.4799845637012</v>
@@ -2857,10 +2857,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>70.92986263248893</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>89.30668535812433</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
@@ -3006,13 +3006,13 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5646102646778</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>81.08753210160955</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>26.70110018160173</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>124.9554984777218</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>156.7012890994297</v>
+        <v>82.99383772901933</v>
       </c>
       <c r="C35" t="n">
         <v>433.7610480884109</v>
@@ -3277,13 +3277,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,10 +3426,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>49.34995949258704</v>
+        <v>77.20378078338567</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
         <v>239.8247518556274</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>23.00716224037895</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>166.9151815679638</v>
       </c>
       <c r="U38" t="n">
         <v>256.4799845637012</v>
@@ -3568,7 +3568,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3663,10 +3663,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>55.96684102370138</v>
       </c>
       <c r="D40" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>27.61942213766275</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>149.6157531058527</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>60.93349615186469</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>44.52455584283003</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>116.6395830120779</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>22.40686319171741</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>37.4218708089711</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>104.8528596352484</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.3870478205513</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="C8" t="n">
-        <v>250.1002694948332</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="D8" t="n">
-        <v>250.1002694948332</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="E8" t="n">
-        <v>129.813491169115</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="F8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="G8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585557</v>
+        <v>23.57954741585563</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558019</v>
+        <v>55.41632306558021</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318069</v>
+        <v>103.1313969318068</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183094</v>
+        <v>162.3261653183093</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590931</v>
+        <v>228.1917507590928</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326581</v>
+        <v>295.1231102326577</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336424</v>
+        <v>358.3244950336419</v>
       </c>
       <c r="P8" t="n">
-        <v>412.265414745567</v>
+        <v>412.2654147455664</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245013</v>
+        <v>452.7727990245007</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698432</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698438</v>
+        <v>401.4050834648253</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698438</v>
+        <v>281.1183051391073</v>
       </c>
       <c r="U8" t="n">
-        <v>370.3870478205513</v>
+        <v>160.8315268133893</v>
       </c>
       <c r="V8" t="n">
-        <v>370.3870478205513</v>
+        <v>160.8315268133893</v>
       </c>
       <c r="W8" t="n">
-        <v>370.3870478205513</v>
+        <v>160.8315268133893</v>
       </c>
       <c r="X8" t="n">
-        <v>370.3870478205513</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.3870478205513</v>
+        <v>129.8134911691149</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.7620855184075</v>
+        <v>235.7620855184072</v>
       </c>
       <c r="C9" t="n">
-        <v>235.7620855184075</v>
+        <v>235.7620855184072</v>
       </c>
       <c r="D9" t="n">
-        <v>235.7620855184075</v>
+        <v>187.0309659002815</v>
       </c>
       <c r="E9" t="n">
-        <v>141.6416708453612</v>
+        <v>92.91055122723525</v>
       </c>
       <c r="F9" t="n">
-        <v>94.70702737294528</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43678475114683</v>
+        <v>16.43678475114681</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367926</v>
+        <v>67.70899752367937</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029952</v>
+        <v>100.1176749029953</v>
       </c>
       <c r="L9" t="n">
         <v>143.6951411186846</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761005</v>
+        <v>194.5479887761004</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936374</v>
+        <v>246.7467599936372</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999702</v>
+        <v>294.4984377999699</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018323</v>
+        <v>332.8233691018319</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.4425707328075</v>
+        <v>358.442570732807</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698432</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698432</v>
       </c>
       <c r="T9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698432</v>
       </c>
       <c r="U9" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698432</v>
       </c>
       <c r="V9" t="n">
-        <v>356.0488638441257</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="W9" t="n">
-        <v>235.7620855184075</v>
+        <v>235.7620855184072</v>
       </c>
       <c r="X9" t="n">
-        <v>235.7620855184075</v>
+        <v>235.7620855184072</v>
       </c>
       <c r="Y9" t="n">
-        <v>235.7620855184075</v>
+        <v>235.7620855184072</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.526712843396878</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="C10" t="n">
-        <v>9.526712843396878</v>
+        <v>235.7620855184072</v>
       </c>
       <c r="D10" t="n">
-        <v>9.526712843396878</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="E10" t="n">
-        <v>9.526712843396878</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="F10" t="n">
-        <v>9.526712843396878</v>
+        <v>129.8134911691149</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396878</v>
+        <v>9.526712843396863</v>
       </c>
       <c r="J10" t="n">
-        <v>108.002400301115</v>
+        <v>108.0024003011149</v>
       </c>
       <c r="K10" t="n">
-        <v>145.6522270497665</v>
+        <v>225.8954717381511</v>
       </c>
       <c r="L10" t="n">
-        <v>170.6679428142237</v>
+        <v>250.9111875026083</v>
       </c>
       <c r="M10" t="n">
-        <v>288.56101425126</v>
+        <v>277.2867523140633</v>
       </c>
       <c r="N10" t="n">
-        <v>314.3094270837847</v>
+        <v>303.0351651465879</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360031</v>
+        <v>326.8179918988064</v>
       </c>
       <c r="P10" t="n">
-        <v>358.4425707328075</v>
+        <v>358.442570732807</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698432</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698438</v>
+        <v>476.3356421698432</v>
       </c>
       <c r="S10" t="n">
-        <v>476.3356421698438</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="T10" t="n">
-        <v>356.0488638441257</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="U10" t="n">
-        <v>235.7620855184075</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="V10" t="n">
-        <v>115.4753071926894</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="W10" t="n">
-        <v>9.526712843396878</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="X10" t="n">
-        <v>9.526712843396878</v>
+        <v>356.0488638441252</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.526712843396878</v>
+        <v>356.0488638441252</v>
       </c>
     </row>
     <row r="11">
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1889.485634438363</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="C11" t="n">
-        <v>1889.485634438363</v>
+        <v>643.4043871814436</v>
       </c>
       <c r="D11" t="n">
-        <v>1453.575849612807</v>
+        <v>643.4043871814436</v>
       </c>
       <c r="E11" t="n">
-        <v>1019.801104771102</v>
+        <v>209.6296423397387</v>
       </c>
       <c r="F11" t="n">
-        <v>591.9336751803103</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U11" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V11" t="n">
-        <v>1889.485634438363</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W11" t="n">
-        <v>1889.485634438363</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X11" t="n">
-        <v>1889.485634438363</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="Y11" t="n">
-        <v>1889.485634438363</v>
+        <v>1081.54685999802</v>
       </c>
     </row>
     <row r="12">
@@ -5099,25 +5099,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.1113136517137</v>
+        <v>863.3185618614019</v>
       </c>
       <c r="C13" t="n">
-        <v>559.5496021349386</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364613</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L13" t="n">
         <v>1106.331138940781</v>
       </c>
       <c r="M13" t="n">
-        <v>1690.512214359095</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1955.723270266458</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1668.767762136888</v>
+        <v>1799.975010346577</v>
       </c>
       <c r="W13" t="n">
-        <v>1396.74135772318</v>
+        <v>1527.948605932868</v>
       </c>
       <c r="X13" t="n">
-        <v>1151.349603056593</v>
+        <v>1282.556851266281</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.9299323707007</v>
+        <v>1055.137180580389</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>316.9281030050443</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="C14" t="n">
-        <v>316.9281030050443</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="D14" t="n">
-        <v>316.9281030050443</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="E14" t="n">
-        <v>316.9281030050443</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
         <v>316.9281030050443</v>
@@ -5314,16 +5314,16 @@
         <v>1889.485634438363</v>
       </c>
       <c r="V14" t="n">
-        <v>1526.86868437219</v>
+        <v>1889.485634438363</v>
       </c>
       <c r="W14" t="n">
-        <v>1122.013229783223</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="X14" t="n">
-        <v>702.8707663625338</v>
+        <v>1484.630179849397</v>
       </c>
       <c r="Y14" t="n">
-        <v>316.9281030050443</v>
+        <v>1484.630179849397</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895474</v>
@@ -5357,16 +5357,16 @@
         <v>81.42328772043086</v>
       </c>
       <c r="J15" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210684</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960907</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>843.5014354710338</v>
+        <v>528.8193777246577</v>
       </c>
       <c r="C16" t="n">
-        <v>724.2907825224202</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="D16" t="n">
-        <v>558.4127897239429</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E16" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895474</v>
@@ -5436,25 +5436,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K16" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>326.783117436994</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M16" t="n">
-        <v>910.9641928553089</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N16" t="n">
-        <v>1480.721907816843</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O16" t="n">
-        <v>2018.157038390386</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.926094568069</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T16" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>1035.320054190021</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="C17" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="D17" t="n">
-        <v>316.9281030050443</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
@@ -5533,7 +5533,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5542,25 +5542,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T17" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U17" t="n">
-        <v>1889.485634438363</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V17" t="n">
-        <v>1526.86868437219</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W17" t="n">
-        <v>1122.013229783223</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X17" t="n">
-        <v>1122.013229783223</v>
+        <v>1578.072968758064</v>
       </c>
       <c r="Y17" t="n">
-        <v>743.2276734899522</v>
+        <v>1578.072968758064</v>
       </c>
     </row>
     <row r="18">
@@ -5573,22 +5573,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043086</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>995.4336129072205</v>
       </c>
       <c r="C19" t="n">
-        <v>471.655226289377</v>
+        <v>822.8719013904455</v>
       </c>
       <c r="D19" t="n">
-        <v>471.655226289377</v>
+        <v>656.9939085919682</v>
       </c>
       <c r="E19" t="n">
-        <v>451.7500725384321</v>
+        <v>487.2359048427055</v>
       </c>
       <c r="F19" t="n">
-        <v>275.0430185001883</v>
+        <v>310.5288508044616</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>145.78767041698</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5679,19 +5679,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M19" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N19" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O19" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1686.698306725808</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>1187.252231626208</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>716.4307943255671</v>
+        <v>884.8517156860543</v>
       </c>
       <c r="C20" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="D20" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E20" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867019</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5782,22 +5782,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T20" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>1849.01926465316</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V20" t="n">
-        <v>1486.402314586987</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W20" t="n">
-        <v>1081.54685999802</v>
+        <v>1655.935061595081</v>
       </c>
       <c r="X20" t="n">
-        <v>1081.54685999802</v>
+        <v>1236.792598174392</v>
       </c>
       <c r="Y20" t="n">
-        <v>716.4307943255671</v>
+        <v>1236.792598174392</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E21" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>717.0469809559645</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>717.0469809559645</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D22" t="n">
-        <v>589.1109565208974</v>
+        <v>305.7772334908988</v>
       </c>
       <c r="E22" t="n">
-        <v>419.3529527716346</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H22" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>733.4227107706877</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M22" t="n">
-        <v>1317.603786189002</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1887.361501150537</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,7 +5937,7 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
         <v>1973.653814855378</v>
@@ -5946,16 +5946,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1136.285270360843</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.8655996749517</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1170.282040260528</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="C23" t="n">
-        <v>1170.282040260528</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="D23" t="n">
-        <v>734.372255434972</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E23" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F23" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G23" t="n">
         <v>47.20655154895474</v>
@@ -5989,52 +5989,52 @@
         <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V23" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W23" t="n">
-        <v>1997.710627381563</v>
+        <v>1293.318111528908</v>
       </c>
       <c r="X23" t="n">
-        <v>1578.568163960874</v>
+        <v>889.2674200910062</v>
       </c>
       <c r="Y23" t="n">
-        <v>1170.282040260528</v>
+        <v>480.9812963906596</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.291841223631</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C25" t="n">
-        <v>919.7301297068562</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D25" t="n">
-        <v>753.852136908379</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E25" t="n">
-        <v>584.0941331591162</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F25" t="n">
-        <v>407.3870791208724</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="I25" t="n">
         <v>47.20655154895474</v>
@@ -6150,19 +6150,19 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K25" t="n">
-        <v>430.2377900463799</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L25" t="n">
-        <v>554.1085916646779</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M25" t="n">
-        <v>1138.289667082993</v>
+        <v>1690.512214359095</v>
       </c>
       <c r="N25" t="n">
-        <v>1708.047382044527</v>
+        <v>1818.011126162985</v>
       </c>
       <c r="O25" t="n">
-        <v>1825.813263392288</v>
+        <v>1935.777007510746</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540314</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2215.901038951972</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U25" t="n">
-        <v>2043.877393424667</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1756.921885295098</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W25" t="n">
-        <v>1756.921885295098</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.53013062851</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.110459942618</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1236.792598174392</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="C26" t="n">
-        <v>1236.792598174392</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="D26" t="n">
-        <v>1150.205539167272</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E26" t="n">
-        <v>716.4307943255671</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F26" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G26" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I26" t="n">
         <v>118.4065018001353</v>
@@ -6229,13 +6229,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6259,19 +6259,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U26" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V26" t="n">
-        <v>2060.790516184048</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W26" t="n">
-        <v>1655.935061595081</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="X26" t="n">
-        <v>1236.792598174392</v>
+        <v>1552.388803007394</v>
       </c>
       <c r="Y26" t="n">
-        <v>1236.792598174392</v>
+        <v>1552.388803007394</v>
       </c>
     </row>
     <row r="27">
@@ -6284,25 +6284,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C27" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D27" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E27" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F27" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G27" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.4042596134699</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C28" t="n">
-        <v>382.8425480966948</v>
+        <v>616.081764785142</v>
       </c>
       <c r="D28" t="n">
-        <v>216.9645552982175</v>
+        <v>616.081764785142</v>
       </c>
       <c r="E28" t="n">
-        <v>47.20655154895473</v>
+        <v>451.7500725384321</v>
       </c>
       <c r="F28" t="n">
-        <v>47.20655154895473</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M28" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N28" t="n">
-        <v>1539.854607180195</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O28" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1220.034303684936</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>974.6425490183487</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>747.222878332457</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1624.755105488881</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C29" t="n">
-        <v>1186.612632672305</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D29" t="n">
-        <v>750.7028478467491</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E29" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F29" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G29" t="n">
         <v>316.9281030050443</v>
@@ -6460,19 +6460,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6481,7 +6481,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U29" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V29" t="n">
-        <v>2101.256885969251</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W29" t="n">
-        <v>1696.401431380284</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="X29" t="n">
-        <v>1624.755105488881</v>
+        <v>1444.163810064194</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.755105488881</v>
+        <v>1035.877686363847</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G30" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
         <v>47.20655154895474</v>
@@ -6581,13 +6581,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W30" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X30" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y30" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>663.4738450083642</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>497.5958522098869</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>497.5958522098869</v>
       </c>
       <c r="F31" t="n">
         <v>407.3870791208724</v>
@@ -6621,25 +6621,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M31" t="n">
-        <v>1412.355695376305</v>
+        <v>875.5973915434845</v>
       </c>
       <c r="N31" t="n">
-        <v>1539.854607180195</v>
+        <v>1445.355106505019</v>
       </c>
       <c r="O31" t="n">
-        <v>1657.620488527956</v>
+        <v>1982.790237078562</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6654,19 +6654,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U31" t="n">
-        <v>1756.921885295098</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V31" t="n">
-        <v>1756.921885295098</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.921885295098</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1782.900983623584</v>
+        <v>1226.204821998793</v>
       </c>
       <c r="C32" t="n">
-        <v>1344.758510807007</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D32" t="n">
-        <v>908.8487259814518</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E32" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J32" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K32" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6727,25 +6727,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T32" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W32" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X32" t="n">
-        <v>2209.200554108492</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y32" t="n">
-        <v>2209.200554108492</v>
+        <v>1652.504392483701</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E33" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G33" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C34" t="n">
-        <v>559.5496021349386</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D34" t="n">
-        <v>393.6716093364613</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E34" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F34" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G34" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J34" t="n">
         <v>106.1122152511379</v>
@@ -6864,19 +6864,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L34" t="n">
-        <v>744.992999204955</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M34" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N34" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O34" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6888,22 +6888,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2234.109902217715</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U34" t="n">
-        <v>1955.723270266458</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V34" t="n">
-        <v>1668.767762136888</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W34" t="n">
-        <v>1396.74135772318</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X34" t="n">
-        <v>1151.349603056593</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.9299323707007</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>2024.257796809404</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895475</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895475</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.440802286703</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="X35" t="n">
-        <v>1941.185114027048</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="Y35" t="n">
-        <v>1941.185114027048</v>
+        <v>2108.089956131646</v>
       </c>
     </row>
     <row r="36">
@@ -6995,25 +6995,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
         <v>175.316627066898</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851425</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C37" t="n">
-        <v>443.5200532683674</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D37" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E37" t="n">
-        <v>223.9136055871986</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>202.9123158186961</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>744.992999204955</v>
+        <v>935.5229194890228</v>
       </c>
       <c r="M37" t="n">
-        <v>1329.17407462327</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1898.931789584804</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
-        <v>2173.320157362631</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T37" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U37" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041296</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.3558941930748</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C38" t="n">
-        <v>506.3558941930748</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D38" t="n">
-        <v>70.44610936751934</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E38" t="n">
-        <v>70.44610936751934</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>70.44610936751934</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
-        <v>70.44610936751934</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L38" t="n">
         <v>805.4408022867025</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2151.26001415954</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.256885969251</v>
+        <v>1892.189322681054</v>
       </c>
       <c r="V38" t="n">
-        <v>1738.639935903077</v>
+        <v>1529.572372614881</v>
       </c>
       <c r="W38" t="n">
-        <v>1333.784481314111</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="X38" t="n">
-        <v>914.6420178934214</v>
+        <v>1124.716918025914</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.3558941930748</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="39">
@@ -7235,13 +7235,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
         <v>79.1492015823585</v>
@@ -7256,19 +7256,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210684</v>
       </c>
       <c r="L39" t="n">
         <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P39" t="n">
         <v>1488.088567599445</v>
@@ -7311,7 +7311,7 @@
         <v>616.081764785142</v>
       </c>
       <c r="C40" t="n">
-        <v>443.520053268367</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D40" t="n">
         <v>393.6716093364613</v>
@@ -7338,16 +7338,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>576.6981455965408</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1160.879221014856</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N40" t="n">
-        <v>1288.378132818745</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O40" t="n">
-        <v>1825.813263392288</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540314</v>
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2360.327577447737</v>
+        <v>2080.191549931987</v>
       </c>
       <c r="V41" t="n">
-        <v>2360.327577447737</v>
+        <v>1717.574599865813</v>
       </c>
       <c r="W41" t="n">
-        <v>2360.327577447737</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="X41" t="n">
-        <v>2209.200554108492</v>
+        <v>1312.719145276847</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.200554108492</v>
+        <v>1312.719145276847</v>
       </c>
     </row>
     <row r="42">
@@ -7469,25 +7469,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.081764785142</v>
+        <v>663.4738450083632</v>
       </c>
       <c r="C43" t="n">
-        <v>554.5327787731575</v>
+        <v>490.9121334915882</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6547859746801</v>
+        <v>325.0341406931109</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>155.2761369438481</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898317</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L43" t="n">
-        <v>1019.751453776091</v>
+        <v>413.3628026016838</v>
       </c>
       <c r="M43" t="n">
-        <v>1160.879221014856</v>
+        <v>997.5438780199985</v>
       </c>
       <c r="N43" t="n">
-        <v>1288.378132818745</v>
+        <v>1567.301592981533</v>
       </c>
       <c r="O43" t="n">
-        <v>1825.813263392288</v>
+        <v>2104.736723555076</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>884.8517156860543</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C44" t="n">
-        <v>446.7092428694776</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>446.7092428694776</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>446.7092428694776</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>446.7092428694776</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2337.694382304588</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U44" t="n">
-        <v>2078.623690826102</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V44" t="n">
-        <v>1716.006740759929</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W44" t="n">
-        <v>1311.151286170962</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X44" t="n">
-        <v>1311.151286170962</v>
+        <v>1900.718744241844</v>
       </c>
       <c r="Y44" t="n">
-        <v>1311.151286170962</v>
+        <v>1900.718744241844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D45" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E45" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F45" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G45" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I45" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J45" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K45" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O45" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P45" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q45" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R45" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S45" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T45" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U45" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V45" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W45" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X45" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y45" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.081764785142</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C46" t="n">
-        <v>578.2818952811308</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="D46" t="n">
-        <v>412.4039024826535</v>
+        <v>450.2037719866643</v>
       </c>
       <c r="E46" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="F46" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K46" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L46" t="n">
-        <v>1019.751453776091</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M46" t="n">
-        <v>1150.35584611462</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N46" t="n">
-        <v>1277.854757918509</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O46" t="n">
         <v>1657.620488527956</v>
@@ -7842,16 +7842,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
         <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041292</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>32.63681545384259</v>
+        <v>32.63681545384276</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946634</v>
+        <v>106.4970253946633</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,13 +8613,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>18.28387946838345</v>
+        <v>99.33766198190338</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442556</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>11.38814337090537</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340654</v>
+        <v>104.8520877340653</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8856,16 +8856,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>177.19208494646</v>
       </c>
       <c r="N13" t="n">
-        <v>70.05088382580902</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O16" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>156.730423204287</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M19" t="n">
-        <v>192.4544649334027</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9558,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>45.75904403825082</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M22" t="n">
         <v>458.158265737157</v>
@@ -9573,13 +9573,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>142.167463699994</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>239.9425756079636</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>177.1920849464597</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>177.1920849464598</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>192.4544649334025</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M34" t="n">
-        <v>192.4544649334022</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10746,19 +10746,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>337.3548964453469</v>
       </c>
       <c r="M37" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>158.2045317475404</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10986,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>252.4394223833807</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>458.158265737157</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>156.730423204287</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>10.62967161639966</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>69.27619576520601</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>264.6463123855403</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>302.9526642375979</v>
       </c>
       <c r="C8" t="n">
-        <v>314.67713754595</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>310.3530868508268</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>304.5048447524234</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.0049566522158</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.18125311796773</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.2079358176206</v>
+        <v>97.12402527515978</v>
       </c>
       <c r="U8" t="n">
-        <v>151.7106595374935</v>
+        <v>137.5158574008323</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -23086,7 +23086,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>384.2431834986507</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -23105,16 +23105,16 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>45.89557754296785</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>36.08470296230823</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
         <v>39.36037526809191</v>
@@ -23150,7 +23150,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656963</v>
+        <v>59.05530966656964</v>
       </c>
       <c r="T9" t="n">
         <v>128.0597233353587</v>
@@ -23159,10 +23159,10 @@
         <v>174.5598441976481</v>
       </c>
       <c r="V9" t="n">
-        <v>78.04243221615968</v>
+        <v>78.04243221615984</v>
       </c>
       <c r="W9" t="n">
-        <v>64.38561618167697</v>
+        <v>64.38561618167712</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
@@ -23181,10 +23181,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914651</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>59.33010446469309</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -23193,7 +23193,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.7654023385416</v>
+        <v>44.68149179608081</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
@@ -23226,22 +23226,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616406</v>
+        <v>13.56162857616407</v>
       </c>
       <c r="S10" t="n">
-        <v>154.6870177308997</v>
+        <v>35.6031071884389</v>
       </c>
       <c r="T10" t="n">
-        <v>123.6105491751608</v>
+        <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577345</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>165.0020425058129</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>164.4170319637718</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>262.7898954120081</v>
       </c>
       <c r="G11" t="n">
-        <v>123.2521479538043</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,10 +23317,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>18.02677463308678</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>112.1439365845602</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23503,13 +23503,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>92.50836101958083</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.12002573942851</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>56.59250992092782</v>
       </c>
       <c r="C16" t="n">
-        <v>52.81754798247981</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811443</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>337.8675668778359</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.20556173300491</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>148.3543214983346</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>95.88964603324665</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>73.61510111660482</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>42.73835744761459</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,10 +24132,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>37.5625486797761</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>87.01543208710689</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24211,16 +24211,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>144.6506149534483</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
         <v>267.0243359415286</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>14.94085426295982</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.11437420552782</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>105.2993565597131</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24448,19 +24448,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>345.8294985602516</v>
+        <v>189.9536751289349</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,16 +24499,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>5.372048387527258</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.91154299085284</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>105.7841516621614</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>344.0211761539935</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>85.63329813973701</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>61.03815536706663</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>352.6735159868014</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24982,10 +24982,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>265.3352856806297</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>137.5181126888908</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>114.8692533779057</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>265.335285680629</v>
+        <v>339.0427370510394</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
@@ -25219,7 +25219,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>114.8692533779055</v>
+        <v>87.01543208710686</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25396,7 +25396,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -25405,10 +25405,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>244.0171737011497</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>42.7383574476151</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="D40" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>267.0243359415286</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>228.8605624260384</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>265.3352856806297</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>109.9025982497426</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>130.4154276550313</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>305.3969917679808</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
         <v>267.0243359415286</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.2466758238615</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>133.4142235926362</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.20756407652169</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>91674.26894165578</v>
+        <v>91674.26894165568</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>406613.6360196382</v>
+        <v>406613.6360196384</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>406613.6360196383</v>
+        <v>406613.6360196382</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>406613.6360196383</v>
+        <v>406613.6360196382</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>406613.6360196382</v>
+        <v>406613.6360196383</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>406613.6360196383</v>
+        <v>406613.6360196382</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>406613.6360196383</v>
+        <v>406613.6360196382</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406613.6360196384</v>
+        <v>406613.6360196383</v>
       </c>
     </row>
   </sheetData>
@@ -26319,25 +26319,25 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>34693.90071497237</v>
+        <v>34693.90071497233</v>
       </c>
       <c r="E2" t="n">
         <v>157297.5713008174</v>
       </c>
       <c r="F2" t="n">
-        <v>157297.5713008173</v>
+        <v>157297.5713008174</v>
       </c>
       <c r="G2" t="n">
         <v>157297.5713008174</v>
       </c>
       <c r="H2" t="n">
+        <v>157297.5713008173</v>
+      </c>
+      <c r="I2" t="n">
+        <v>157297.5713008173</v>
+      </c>
+      <c r="J2" t="n">
         <v>157297.5713008174</v>
-      </c>
-      <c r="I2" t="n">
-        <v>157297.5713008174</v>
-      </c>
-      <c r="J2" t="n">
-        <v>157297.5713008173</v>
       </c>
       <c r="K2" t="n">
         <v>157297.5713008174</v>
@@ -26346,7 +26346,7 @@
         <v>157297.5713008174</v>
       </c>
       <c r="M2" t="n">
-        <v>157297.5713008174</v>
+        <v>157297.5713008173</v>
       </c>
       <c r="N2" t="n">
         <v>157297.5713008174</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730579</v>
+        <v>117708.4675730577</v>
       </c>
       <c r="E3" t="n">
-        <v>439858.2450180441</v>
+        <v>439858.2450180444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310199</v>
+        <v>30139.06600310192</v>
       </c>
       <c r="M3" t="n">
-        <v>117374.581559748</v>
+        <v>117374.5815597481</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5042.780947681904</v>
+        <v>5042.7809476819</v>
       </c>
       <c r="E4" t="n">
-        <v>13837.47714308859</v>
+        <v>13837.4771430886</v>
       </c>
       <c r="F4" t="n">
         <v>13837.4771430886</v>
       </c>
       <c r="G4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="H4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="I4" t="n">
         <v>13837.4771430886</v>
@@ -26447,16 +26447,16 @@
         <v>13837.4771430886</v>
       </c>
       <c r="L4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="M4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="N4" t="n">
         <v>13837.4771430886</v>
       </c>
       <c r="O4" t="n">
-        <v>13837.4771430886</v>
+        <v>13837.47714308859</v>
       </c>
       <c r="P4" t="n">
         <v>13837.4771430886</v>
@@ -26475,43 +26475,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>42922.56227239237</v>
+        <v>42922.56227239236</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-130979.9100781598</v>
+        <v>-132146.8088743108</v>
       </c>
       <c r="E6" t="n">
-        <v>-342449.2320699531</v>
+        <v>-343003.1125131753</v>
       </c>
       <c r="F6" t="n">
-        <v>97409.01294809092</v>
+        <v>96855.13250486902</v>
       </c>
       <c r="G6" t="n">
-        <v>97409.01294809101</v>
+        <v>96855.13250486903</v>
       </c>
       <c r="H6" t="n">
-        <v>97409.01294809095</v>
+        <v>96855.13250486898</v>
       </c>
       <c r="I6" t="n">
-        <v>97409.01294809095</v>
+        <v>96855.13250486896</v>
       </c>
       <c r="J6" t="n">
-        <v>97409.01294809094</v>
+        <v>96855.13250486908</v>
       </c>
       <c r="K6" t="n">
-        <v>97409.01294809098</v>
+        <v>96855.13250486908</v>
       </c>
       <c r="L6" t="n">
-        <v>67269.94694498905</v>
+        <v>66716.06650176716</v>
       </c>
       <c r="M6" t="n">
-        <v>-19965.56861165701</v>
+        <v>-20519.44905487908</v>
       </c>
       <c r="N6" t="n">
-        <v>97409.01294809101</v>
+        <v>96855.13250486905</v>
       </c>
       <c r="O6" t="n">
-        <v>97409.01294809101</v>
+        <v>96855.13250486903</v>
       </c>
       <c r="P6" t="n">
-        <v>97409.01294809098</v>
+        <v>96855.13250486906</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748048</v>
+        <v>94.25048217480466</v>
       </c>
       <c r="E3" t="n">
         <v>466.7019280932212</v>
@@ -26773,13 +26773,13 @@
         <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26795,43 +26795,43 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="I4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
     </row>
   </sheetData>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.2504821748048</v>
+        <v>94.25048217480466</v>
       </c>
       <c r="E3" t="n">
-        <v>372.4514459184164</v>
+        <v>372.4514459184165</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424607</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194733</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194732</v>
+        <v>470.9979838194735</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529839</v>
+        <v>0.3788964107529832</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866623997</v>
+        <v>3.880372866623991</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555442</v>
+        <v>14.6074038755544</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214609</v>
+        <v>32.15835924214604</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931991</v>
+        <v>48.19704430931984</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990155</v>
+        <v>59.79269533990146</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462992</v>
+        <v>66.53089438462982</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168184</v>
+        <v>67.60743381168174</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725685</v>
+        <v>63.83978262725676</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679256</v>
+        <v>54.48577748679248</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670131</v>
+        <v>40.91654977670125</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196214</v>
+        <v>23.80085166196211</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033627</v>
+        <v>8.634101960033615</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071188</v>
+        <v>1.658619038071185</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0303117128602387</v>
+        <v>0.03031171286023866</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250518</v>
+        <v>0.2027274522250515</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857738</v>
+        <v>1.957920393857735</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888847</v>
+        <v>6.979870613888837</v>
       </c>
       <c r="J9" t="n">
-        <v>19.15329845780633</v>
+        <v>19.1532984578063</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568848</v>
+        <v>32.73603775688475</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211049</v>
+        <v>44.01764264211042</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526861</v>
+        <v>51.36651278526853</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286557</v>
+        <v>52.72603153286549</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619468</v>
+        <v>48.23401798619461</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006275</v>
+        <v>38.7120518200627</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542943</v>
+        <v>25.87798144542939</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779752</v>
+        <v>12.5868851477975</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531114</v>
+        <v>3.765573509531108</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457131</v>
+        <v>0.8171338973457118</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0133373323832271</v>
+        <v>0.01333733238322708</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889922</v>
+        <v>0.169959885888992</v>
       </c>
       <c r="H10" t="n">
-        <v>1.511097894540314</v>
+        <v>1.511097894540312</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643514</v>
+        <v>5.111157295643507</v>
       </c>
       <c r="J10" t="n">
-        <v>12.01616393235175</v>
+        <v>12.01616393235173</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055746</v>
+        <v>19.74624856055743</v>
       </c>
       <c r="L10" t="n">
-        <v>25.268399762078</v>
+        <v>25.26839976207796</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803539</v>
+        <v>26.64198465803535</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063098</v>
+        <v>26.00849781063095</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254732</v>
+        <v>24.02305732547317</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333774</v>
+        <v>20.55587565333771</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839552</v>
+        <v>14.2318228083955</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517777</v>
+        <v>7.642014505517765</v>
       </c>
       <c r="S10" t="n">
-        <v>2.961937284083618</v>
+        <v>2.961937284083614</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075121</v>
+        <v>0.726192239707511</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308678</v>
+        <v>0.009270539230308664</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32800,7 +32800,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
@@ -33025,7 +33025,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33736,7 +33736,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642303</v>
+        <v>14.194782396423</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214609</v>
+        <v>32.15835924214604</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430931991</v>
+        <v>48.19704430931984</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990157</v>
+        <v>59.79269533990143</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438462993</v>
+        <v>66.53089438462982</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168189</v>
+        <v>67.60743381168174</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725691</v>
+        <v>63.8397826272568</v>
       </c>
       <c r="P8" t="n">
         <v>54.48577748679247</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670129</v>
+        <v>40.91654977670123</v>
       </c>
       <c r="R8" t="n">
         <v>23.80085166196216</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888846</v>
+        <v>6.979870613888837</v>
       </c>
       <c r="J9" t="n">
-        <v>51.79011391164892</v>
+        <v>51.79011391164906</v>
       </c>
       <c r="K9" t="n">
-        <v>32.7360377568848</v>
+        <v>32.73603775688474</v>
       </c>
       <c r="L9" t="n">
-        <v>44.0176426421105</v>
+        <v>44.01764264211042</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526861</v>
+        <v>51.36651278526853</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286556</v>
+        <v>52.72603153286548</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619469</v>
+        <v>48.2340179861946</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006281</v>
+        <v>38.7120518200627</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542944</v>
+        <v>25.87798144542938</v>
       </c>
       <c r="R9" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>99.47039137143243</v>
+        <v>99.4703913714324</v>
       </c>
       <c r="K10" t="n">
-        <v>38.03012802894091</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207799</v>
+        <v>25.26839976207796</v>
       </c>
       <c r="M10" t="n">
-        <v>119.083910542461</v>
+        <v>26.64198465803537</v>
       </c>
       <c r="N10" t="n">
         <v>26.00849781063096</v>
@@ -35348,10 +35348,10 @@
         <v>24.02305732547319</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333775</v>
+        <v>31.94401902424306</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.083910542461</v>
+        <v>119.0839105424608</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,16 +35409,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125708</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766677</v>
       </c>
       <c r="M11" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35488,7 +35488,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447063</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712372</v>
       </c>
       <c r="N13" t="n">
-        <v>198.8376634256974</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35725,25 +35725,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562348</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>575.5128433954891</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O16" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320033</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>227.2024143463636</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35889,22 +35889,22 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
         <v>117.855135640546</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36044,19 +36044,19 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M19" t="n">
-        <v>324.3780935581799</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>101.7869254320035</v>
@@ -36120,7 +36120,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -36129,7 +36129,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36141,7 +36141,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>170.8810658749154</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,22 +36366,22 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K25" t="n">
-        <v>239.9453430611639</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M25" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O25" t="n">
         <v>118.9554357048098</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>341.7295010399669</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36597,22 +36597,22 @@
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M28" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>452.8039900485103</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36849,10 +36849,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
         <v>117.855135640546</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M31" t="n">
-        <v>309.1157135712369</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485103</v>
+        <v>294.241390365406</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37068,19 +37068,19 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
         <v>316.1166813548411</v>
@@ -37089,7 +37089,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
         <v>117.855135640546</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37229,13 +37229,13 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447062</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M34" t="n">
-        <v>324.3780935581794</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
@@ -37305,7 +37305,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
@@ -37314,7 +37314,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624559</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.556245844706</v>
+        <v>462.4769182820114</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>277.1599674523502</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
@@ -37539,16 +37539,16 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
@@ -37621,25 +37621,25 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L39" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>377.5614442200453</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>258.5173486362903</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
@@ -37788,16 +37788,16 @@
         <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572665</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M43" t="n">
-        <v>142.5533002411769</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O43" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>171.0631211972095</v>
       </c>
       <c r="Q43" t="n">
         <v>70.4719911420766</v>
@@ -38013,19 +38013,19 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L45" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M45" t="n">
         <v>254.3525508108055</v>
@@ -38113,13 +38113,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K46" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
         <v>547.556245844706</v>
@@ -38189,13 +38189,13 @@
         <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
-        <v>383.6017480903502</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
